--- a/MATLAB_Fundamentals/data/electricityData.xlsx
+++ b/MATLAB_Fundamentals/data/electricityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\GitHub\MATLAB_Courses\MATLAB_Fundamentals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E29DC-C093-42D9-888C-6676FE955E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B9D95-BE7B-49C5-A7AA-F1A094C51986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72AD688F-C8BE-4F50-AF65-ACA4B2F2570E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{72AD688F-C8BE-4F50-AF65-ACA4B2F2570E}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>01-Apr-1990</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>01-Jan-1993</t>
@@ -720,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EA7E38-7042-4004-82A2-6CD0D02CEE59}">
   <dimension ref="A1:A315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -909,7 +906,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -924,7 +921,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -944,7 +941,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -964,12 +961,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
@@ -984,7 +981,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -1004,7 +1001,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
@@ -1284,7 +1281,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -1484,7 +1481,7 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
@@ -1504,12 +1501,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
@@ -1524,7 +1521,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
@@ -1744,12 +1741,12 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
@@ -1764,7 +1761,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
@@ -1784,7 +1781,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
@@ -1804,12 +1801,12 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
@@ -1824,7 +1821,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
@@ -1844,7 +1841,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
@@ -1864,12 +1861,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
@@ -2340,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD9F78-1DA5-439C-943E-873F2EFE3476}">
   <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="I329" sqref="I329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,8 +2434,8 @@
       <c r="B7">
         <v>2288600</v>
       </c>
-      <c r="C7" t="s">
-        <v>85</v>
+      <c r="C7">
+        <v>2700000</v>
       </c>
       <c r="D7">
         <v>8115800</v>
@@ -2585,8 +2582,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>85</v>
+      <c r="A18">
+        <v>2617500</v>
       </c>
       <c r="B18">
         <v>2267200</v>
@@ -2720,8 +2717,8 @@
       <c r="C27">
         <v>2558400</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
+      <c r="D27">
+        <v>7443900</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2997,8 +2994,8 @@
       <c r="B47">
         <v>2045000</v>
       </c>
-      <c r="C47" t="s">
-        <v>85</v>
+      <c r="C47">
+        <v>2641600</v>
       </c>
       <c r="D47">
         <v>7429500</v>
@@ -3145,8 +3142,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>85</v>
+      <c r="A58">
+        <v>2611000</v>
       </c>
       <c r="B58">
         <v>2179200</v>
@@ -3344,8 +3341,8 @@
       <c r="A72">
         <v>2980400</v>
       </c>
-      <c r="B72" t="s">
-        <v>85</v>
+      <c r="B72">
+        <v>2303700</v>
       </c>
       <c r="C72">
         <v>2660500</v>
@@ -3420,8 +3417,8 @@
       <c r="C77">
         <v>2794800</v>
       </c>
-      <c r="D77" t="s">
-        <v>85</v>
+      <c r="D77">
+        <v>8262600</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3509,8 +3506,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>85</v>
+      <c r="A84">
+        <v>3009700</v>
       </c>
       <c r="B84">
         <v>2315297</v>
@@ -3621,8 +3618,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>85</v>
+      <c r="A92">
+        <v>3343100</v>
       </c>
       <c r="B92">
         <v>2797100</v>
@@ -3677,8 +3674,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>85</v>
+      <c r="A96">
+        <v>2982200</v>
       </c>
       <c r="B96">
         <v>2440900</v>
@@ -3739,8 +3736,8 @@
       <c r="B100">
         <v>2425800</v>
       </c>
-      <c r="C100" t="s">
-        <v>85</v>
+      <c r="C100">
+        <v>2817700</v>
       </c>
       <c r="D100">
         <v>7980600</v>
@@ -3750,8 +3747,8 @@
       <c r="A101">
         <v>2499400</v>
       </c>
-      <c r="B101" t="s">
-        <v>85</v>
+      <c r="B101">
+        <v>2654900</v>
       </c>
       <c r="C101">
         <v>2894400</v>
@@ -4100,8 +4097,8 @@
       <c r="A126">
         <v>3466200</v>
       </c>
-      <c r="B126" t="s">
-        <v>85</v>
+      <c r="B126">
+        <v>2986300</v>
       </c>
       <c r="C126">
         <v>3069200</v>
@@ -4240,8 +4237,8 @@
       <c r="A136">
         <v>2748500</v>
       </c>
-      <c r="B136" t="s">
-        <v>85</v>
+      <c r="B136">
+        <v>2767600</v>
       </c>
       <c r="C136">
         <v>2741800</v>
@@ -4313,8 +4310,8 @@
       <c r="B141">
         <v>3223500</v>
       </c>
-      <c r="C141" t="s">
-        <v>85</v>
+      <c r="C141">
+        <v>2740000</v>
       </c>
       <c r="D141">
         <v>9864200</v>
@@ -4587,8 +4584,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>85</v>
+      <c r="A161">
+        <v>3074000</v>
       </c>
       <c r="B161">
         <v>3090900</v>
@@ -4685,8 +4682,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>85</v>
+      <c r="A168">
+        <v>3484700</v>
       </c>
       <c r="B168">
         <v>3157100</v>
@@ -4764,8 +4761,8 @@
       <c r="C173">
         <v>2806100</v>
       </c>
-      <c r="D173" t="s">
-        <v>85</v>
+      <c r="D173">
+        <v>9498100</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4797,8 +4794,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>85</v>
+      <c r="A176">
+        <v>3957900</v>
       </c>
       <c r="B176">
         <v>3692016</v>
@@ -4806,8 +4803,8 @@
       <c r="C176">
         <v>2885200</v>
       </c>
-      <c r="D176" t="s">
-        <v>85</v>
+      <c r="D176">
+        <v>10528000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4979,8 +4976,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>85</v>
+      <c r="A189">
+        <v>4014000</v>
       </c>
       <c r="B189">
         <v>3855900</v>
@@ -5296,8 +5293,8 @@
       <c r="C211">
         <v>2871500</v>
       </c>
-      <c r="D211" t="s">
-        <v>85</v>
+      <c r="D211">
+        <v>11395000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5329,8 +5326,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>85</v>
+      <c r="A214">
+        <v>3766100</v>
       </c>
       <c r="B214">
         <v>3692900</v>
@@ -5374,8 +5371,8 @@
       <c r="A217">
         <v>4302200</v>
       </c>
-      <c r="B217" t="s">
-        <v>85</v>
+      <c r="B217">
+        <v>3508100</v>
       </c>
       <c r="C217">
         <v>2680300</v>
@@ -5391,8 +5388,8 @@
       <c r="B218">
         <v>3599900</v>
       </c>
-      <c r="C218" t="s">
-        <v>85</v>
+      <c r="C218">
+        <v>2687100</v>
       </c>
       <c r="D218">
         <v>10521000</v>
@@ -5450,8 +5447,8 @@
       <c r="C222">
         <v>2907500</v>
       </c>
-      <c r="D222" t="s">
-        <v>85</v>
+      <c r="D222">
+        <v>10482000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5545,8 +5542,8 @@
       <c r="B229">
         <v>3536900</v>
       </c>
-      <c r="C229" t="s">
-        <v>85</v>
+      <c r="C229">
+        <v>2497900</v>
       </c>
       <c r="D229">
         <v>10375000</v>
@@ -5940,8 +5937,8 @@
       <c r="C257">
         <v>2647100</v>
       </c>
-      <c r="D257" t="s">
-        <v>85</v>
+      <c r="D257">
+        <v>10051000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6164,8 +6161,8 @@
       <c r="C273">
         <v>2735300</v>
       </c>
-      <c r="D273" t="s">
-        <v>85</v>
+      <c r="D273">
+        <v>10927000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6178,8 +6175,8 @@
       <c r="C274">
         <v>2677300</v>
       </c>
-      <c r="D274" t="s">
-        <v>85</v>
+      <c r="D274">
+        <v>10114000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6494,8 +6491,8 @@
       <c r="A297">
         <v>4024700</v>
       </c>
-      <c r="B297" t="s">
-        <v>85</v>
+      <c r="B297">
+        <v>3845500</v>
       </c>
       <c r="C297">
         <v>2849600</v>
@@ -6743,11 +6740,11 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>85</v>
-      </c>
-      <c r="B315" t="s">
-        <v>85</v>
+      <c r="A315">
+        <v>3789100</v>
+      </c>
+      <c r="B315">
+        <v>3567500</v>
       </c>
       <c r="C315">
         <v>2458700</v>
